--- a/Feeds.xlsx
+++ b/Feeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\FH WN\Analysewerkzeuge\python\python project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\FH WN\Analysewerkzeuge\python\python project\pr6_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{DBDE22A0-9E13-4781-89C7-EDAF4EF05E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56963305-91A9-4F4F-A623-A9714CE3C10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>RSS Feeds</t>
   </si>
@@ -229,12 +229,33 @@
   </si>
   <si>
     <t>Investing.com</t>
+  </si>
+  <si>
+    <t>http://moneycentral.msn.com/community/rss/MoneyFeeds.aspx</t>
+  </si>
+  <si>
+    <t>http://www.sec.gov/rss/news/press.xml</t>
+  </si>
+  <si>
+    <t>moneycentral</t>
+  </si>
+  <si>
+    <t>sec.gov</t>
+  </si>
+  <si>
+    <t>http://feeds.bbci.co.uk/news/world/us_and_canada/rss.xml</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,12 +317,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -616,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,10 +736,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +750,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,7 +758,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +766,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,7 +774,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,7 +782,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,7 +790,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +798,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +806,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +814,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +822,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +830,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +838,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +846,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +854,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +862,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,7 +870,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,7 +878,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +886,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +910,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +918,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +926,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,7 +934,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,7 +942,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +950,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,7 +958,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,7 +966,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +974,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +982,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +990,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +998,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,7 +1006,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +1014,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +1022,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +1030,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,7 +1046,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1054,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1062,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1070,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,7 +1078,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,7 +1086,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1094,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1102,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,14 +1110,46 @@
         <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C56" r:id="rId2" display="view-source:http://moneycentral.msn.com/community/rss/MoneyFeeds.aspx" xr:uid="{D448BCF8-88E8-45B7-B152-8C7475F18B5B}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{EE90E4F7-A3B4-4BB8-85E7-850731217EFC}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{54295CD6-5C60-4451-96BA-C939CE7B5729}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{E4424260-81CC-499E-87DE-08EC72D327C4}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{0423734F-8645-4276-A542-643FAE2DAF03}"/>
+    <hyperlink ref="C57" r:id="rId7" xr:uid="{B1AF5200-7191-4372-BA76-8F57068C7BE8}"/>
+    <hyperlink ref="C53" r:id="rId8" xr:uid="{366A689F-83F7-421D-AA8E-0C5BA9FF37BD}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{05C0AB2D-0F07-421A-A56A-1F6F3B33D142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>